--- a/thinking.xlsx
+++ b/thinking.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>我的目标</t>
   </si>
@@ -627,13 +627,55 @@
   </si>
   <si>
     <t>每个人的分工</t>
+  </si>
+  <si>
+    <t>做什么？  怎么做？</t>
+  </si>
+  <si>
+    <t>对社会有价值？  但不是对所有人的?</t>
+  </si>
+  <si>
+    <t>瑞达利欧    基金？</t>
+  </si>
+  <si>
+    <t>人类社会是矛盾的，就是利润在分配</t>
+  </si>
+  <si>
+    <t>我 田野作为领头人</t>
+  </si>
+  <si>
+    <t>长期目标 ：  做想做的事情</t>
+  </si>
+  <si>
+    <t>中期目标 ： 财富自由</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初期目标 ： </t>
+  </si>
+  <si>
+    <t>用户培养， 用户也要赞成这个系统</t>
+  </si>
+  <si>
+    <t>选择用户</t>
+  </si>
+  <si>
+    <t>用户要相信我们</t>
+  </si>
+  <si>
+    <t>1、客户和交易系统要比配</t>
+  </si>
+  <si>
+    <t>2、做自己擅长的系统</t>
+  </si>
+  <si>
+    <t>用户自己去识别合适不合适？ 不贪心，和合适的人做合适的事</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,6 +710,21 @@
       <color theme="1"/>
       <name val="宋体"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -689,13 +746,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -716,13 +775,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>167814</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>84198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -754,13 +813,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>472887</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>84163</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1078,18 +1137,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F130"/>
+  <dimension ref="A2:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="H130" sqref="H130"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
@@ -1097,7 +1158,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
@@ -1105,360 +1166,420 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
+      <c r="H21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
+      <c r="I22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="I23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
+      <c r="D30" s="7"/>
+    </row>
+    <row r="32" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="I34" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="I36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+      <c r="I37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="I38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="I39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
+    <row r="45" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A57" s="2" t="s">
+    <row r="64" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A64" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="1" t="s">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C62" t="s">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C63" t="s">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="1" t="s">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C66" t="s">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C67" t="s">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="1" t="s">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C70" t="s">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C71" t="s">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A74" s="2" t="s">
+    <row r="81" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A81" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C79" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C80" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C81" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C83" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A90" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A97" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A100" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A107" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A106" s="2" t="s">
+    <row r="113" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A113" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B108" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A112" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A119" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C118" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C119" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A122" s="2" t="s">
+    <row r="129" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A129" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B125" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B126" s="3" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B128" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B130" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
         <v>203</v>
       </c>
     </row>
@@ -1473,7 +1594,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P181"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
